--- a/数据整理/stocks/A股/创业板/300450-先导智能.xlsx
+++ b/数据整理/stocks/A股/创业板/300450-先导智能.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13668,7 +13669,6 @@
           <t>华夏兴华混合H</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
           <t>89.82</t>
@@ -13700,7 +13700,6 @@
           <t>光大保德信创业板量化优选股票C</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
           <t>90.50</t>
@@ -13716,6 +13715,6558 @@
       </c>
       <c r="H176" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H172"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>369.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.4935</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6054</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.8682</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.6475</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>75.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.9872</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161028</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.3000</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501057</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>104.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.2324</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.9657</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.7697</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515030</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>71.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.7404</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>45.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.6231</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>60.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.2943</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.1507</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515700</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安中证新能源汽车产业ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>51.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.7898</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6426</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6208</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>40.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6176</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4395</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.4327</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501058</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFC</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>43.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.3547</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.3388</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>163803</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>23.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.3349</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3219</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>33.69</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3072</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.3032</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.2838</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.2652</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.2618</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.2535</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160225</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>31.39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.2179</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.0970</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.0352</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.0216</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>16.53</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.9901</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>32.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>55.93</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.9611</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006904</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8923</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.8509</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.8355</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.87</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.8045</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.11</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7301</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7249</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.7127</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6883</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>12.12</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6387</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6103</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6037</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159806</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>16.28</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5958</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005474</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5916</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5512</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4903</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4866</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4831</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4446</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4269</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>516160</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>18.15</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4229</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>512580</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发中证环保产业ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>19.59</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4114</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4006</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3841</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>11.78</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3817</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3562</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3561</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2985</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2951</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2814</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2814</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2707</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2614</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006905</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001106</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华商健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2327</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2272</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.11</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2267</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001677</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2071</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1859</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005037</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008640</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>159824</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>74.74</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005475</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010805</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>630016</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华商价值共享</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>516660</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华安中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>96.73</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011512</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>73.86</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>96.28</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008641</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>163114</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011513</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009981</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004394</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创优灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010806</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>159861</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>国泰中证环保产业50ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>159885</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>鹏华中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>516070</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>易方达中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>011667</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>96.11</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005038</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>160634</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>鹏华中证环保产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>516090</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>易方达中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>164304</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>新华中证环保产业指数</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>011668</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>009982</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>516850</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华夏中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>73.86</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>56.89</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>96.11</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>42.41</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>010812</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>42.41</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>960011</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>中银持续增长混合H</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>012236</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>中银持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>010419</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>36.95</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>36.95</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300450-先导智能.xlsx
+++ b/数据整理/stocks/A股/创业板/300450-先导智能.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20272,4 +20273,8494 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H223"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>341.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.4741</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>125.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.9942</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.8017</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>120.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.3125</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501057</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>153.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.9462</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.8760</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.4415</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.0418</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>61.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.9987</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.8946</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161028</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>103.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.5928</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>126.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>62.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.5154</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.3816</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515030</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.2323</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.7905</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501058</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFC</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.0183</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>29.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.0000</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>61.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.9711</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>46.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.9708</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000696</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富环保行业股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>58.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.9467</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515700</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安中证新能源汽车产业ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>57.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.9262</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.7488</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>34.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.7290</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.6052</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>32.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.5821</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>163803</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.5501</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.5421</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.5353</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.2741</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>61.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.2328</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.2086</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.2023</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.1710</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160225</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>30.32</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.0885</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.0831</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>33.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.9900</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>25.78</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.9771</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>19.55</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.9443</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>26.70</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.9425</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.72</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.9091</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>18.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.8381</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.8323</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159790</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>33.73</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.7994</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.7981</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>63.13</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.7620</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159806</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.7583</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>62.34</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.7460</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.7407</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.7371</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.6745</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.6383</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.6372</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.6294</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.6225</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159755</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.6216</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.5995</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.5676</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.5555</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>512580</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发中证环保产业ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.5396</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.5352</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.5161</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>516160</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南方中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.4947</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.4821</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.4517</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002891</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.4369</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002892</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.4369</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002893</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.4369</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.4192</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.4166</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.4077</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3987</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.3663</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.3561</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.3482</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.3444</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.3390</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.3313</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.3265</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.3176</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001677</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.3038</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2932</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010805</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2914</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2787</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2605</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2487</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2452</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>63.13</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2425</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.2258</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.2245</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011512</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.2119</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.2090</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1917</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>159757</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>景顺长城国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011513</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>159885</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>鹏华中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>159824</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>博时中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010806</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>159861</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>国泰中证环保产业50ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>008640</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>012236</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中银持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>68.19</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>163114</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>516660</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华安中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>000279</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华商红利优选混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>67.99</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>516390</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>516070</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>易方达中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>160634</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>鹏华中证环保产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>96.06</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>47.94</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>516090</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>易方达中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>008641</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>159752</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>申万菱信中证内地新能源主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>004394</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创优灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>009475</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>汇丰晋信慧盈混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>36.75</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>009106</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>516580</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>博时中证新能源交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>516270</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>华安中证内地新能源主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>164304</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>新华中证环保产业指数</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>011667</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>47.94</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>009107</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>68.19</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>516850</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>华夏中证新能源ETF</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>63.81</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>011668</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>010812</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>960011</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>中银持续增长混合H</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>010749</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>010419</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>63.81</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>010750</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300450-先导智能.xlsx
+++ b/数据整理/stocks/A股/创业板/300450-先导智能.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28763,4 +28764,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>222</v>
+      </c>
+      <c r="D2" t="n">
+        <v>146.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>171</v>
+      </c>
+      <c r="D3" t="n">
+        <v>107.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>175</v>
+      </c>
+      <c r="D4" t="n">
+        <v>95.65000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>172</v>
+      </c>
+      <c r="D5" t="n">
+        <v>90.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300450-先导智能.xlsx
+++ b/数据整理/stocks/A股/创业板/300450-先导智能.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28772,7 +28773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28783,17 +28784,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -28803,14 +28824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>222</v>
-      </c>
-      <c r="D2" t="n">
-        <v>146.58</v>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>141.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.7041</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -28819,14 +28862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>171</v>
-      </c>
-      <c r="D3" t="n">
-        <v>107.23</v>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>136.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.0800</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -28835,14 +28900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>175</v>
-      </c>
-      <c r="D4" t="n">
-        <v>95.65000000000001</v>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.2962</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -28851,13 +28938,9305 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>501057</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>177.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.9948</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.0044</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161028</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>113.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.8940</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>74.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.8808</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515030</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>95.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.4580</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.0991</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.4430</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501058</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFC</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>70.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.3866</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>58.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.3559</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>69.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.3427</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515700</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安中证新能源汽车产业ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>67.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.3376</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>44.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.2648</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>31.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.1969</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000696</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富环保行业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>58.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.1338</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>29.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.1287</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159949</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安创业板50ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.1221</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>31.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.1167</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.1015</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>44.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.0981</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2.0704</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.8396</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.8235</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.7562</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>43.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.6374</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.6371</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011371</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.5906</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>47.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.5822</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.5566</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.5563</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159780</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>40.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.3443</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>57.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.3113</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>31.52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.2450</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>163803</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.2221</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>34.55</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.2023</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.0704</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.0606</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159790</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>37.98</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1.0255</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1.0241</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159783</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1.0020</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.9737</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.9566</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012894</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.9534</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>160225</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.9090</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012907</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>27.19</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.8266</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159806</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.8121</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>55.96</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.7886</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.7172</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>588380</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国中证科创创业50交易型开放式指数</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>20.89</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.7019</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.6852</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.6794</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>588300</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.6737</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012895</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.6732</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>512580</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发中证环保产业ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.6701</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>55.96</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.6700</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.6541</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.6358</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.5670</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.5424</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.5390</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>588400</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.5284</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.5270</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.5227</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.5139</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>35.21</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.5110</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>588330</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华宝中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.66</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.5110</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>180010</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银华优质增长混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>75.22</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.5000</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.4923</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.4888</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.4857</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159755</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.4796</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.4657</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.4466</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.4219</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.4036</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>73.40</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.4036</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.4025</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>72.66</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.3866</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.3834</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.3734</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.3563</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.3536</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>159782</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>银华中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.3534</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.3490</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.3454</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010805</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.3355</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.3280</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011513</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.3157</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007464</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.3137</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.3035</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.3014</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.2926</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>96.58</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.2912</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.2774</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>98.88</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.2769</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.2647</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.2641</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.2503</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>160420</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华安创业板50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.2452</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>588360</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>国泰中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>68.06</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.2216</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001416</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>嘉实事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>15.25</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.2120</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>159885</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>鹏华中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.2100</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>012723</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.2058</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.2055</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>012898</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1915</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>516660</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华安中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>96.90</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>159861</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>国泰中证环保产业50ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1789</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>007465</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1786</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>159757</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>景顺长城国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>159840</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>工银瑞信国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010806</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>75.47</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>001106</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华商健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>516070</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>易方达中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>159767</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>兴银国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>70.47</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001677</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>561910</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>招商中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>560560</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>泰康中证内地低碳经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>159824</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>博时中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>516390</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>163114</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>516270</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>华安中证内地新能源主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>012908</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>159752</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>申万菱信中证内地新能源主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>160634</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>鹏华中证环保产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>39.44</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>009981</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>013195</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>招商中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>013196</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>招商中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>159814</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>西部利得创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>000279</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>华商红利优选混合</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>67.54</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>013816</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>630016</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>华商价值共享</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>001739</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>中融融安二号灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>012722</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>003658</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>长盛量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>41.35</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>013106</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>006302</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>银华行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>74.09</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>004394</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创优灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>013105</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>164304</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>新华中证环保产业指数</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>011512</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>012236</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>中银持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>013817</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>39.44</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>012899</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>159991</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>招商创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>010419</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>009982</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>010812</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>960011</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>中银持续增长混合H</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H242" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H243" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>0</v>
+      </c>
+      <c r="H245" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>245</v>
+      </c>
+      <c r="D2" t="n">
+        <v>146.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>222</v>
+      </c>
+      <c r="D3" t="n">
+        <v>146.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>171</v>
+      </c>
+      <c r="D4" t="n">
+        <v>107.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>175</v>
+      </c>
+      <c r="D5" t="n">
+        <v>95.65000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>172</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>90.89</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300450-先导智能.xlsx
+++ b/数据整理/stocks/A股/创业板/300450-先导智能.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -38135,7 +38136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38146,17 +38147,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -38166,14 +38187,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>245</v>
-      </c>
-      <c r="D2" t="n">
-        <v>146.49</v>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>280.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.3484</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -38182,14 +38225,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>222</v>
-      </c>
-      <c r="D3" t="n">
-        <v>146.58</v>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>149.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.8598</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -38198,14 +38263,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>171</v>
-      </c>
-      <c r="D4" t="n">
-        <v>107.23</v>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>136.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.7793</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -38214,14 +38301,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>175</v>
-      </c>
-      <c r="D5" t="n">
-        <v>95.65000000000001</v>
+          <t>501057</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>149.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.8415</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -38230,13 +38339,7307 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.4744</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161028</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>113.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.7232</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515030</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>95.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.2657</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.1581</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>67.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.9810</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159949</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安创业板50ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>119.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.8531</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.6904</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>68.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.2475</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000696</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富环保行业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>58.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.1338</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501058</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFC</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.0030</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515700</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安中证新能源汽车产业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>59.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.9757</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.8249</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>33.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.7152</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.6501</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159783</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>50.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.6406</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>50.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5976</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4478</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013147</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富碳中和主题混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>35.81</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.2677</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>36.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2501</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159780</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2134</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.2112</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.2098</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0837</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>46.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0320</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9787</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159790</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>37.98</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9457</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160225</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8752</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>163803</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8609</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>960011</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银持续增长混合H</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8609</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8507</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159806</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7810</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159755</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7651</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7315</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012894</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7064</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>68.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6684</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6437</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>588380</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国中证科创创业50交易型开放式指数</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6370</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>588400</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>19.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6298</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012907</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6271</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>68.04</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6206</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6100</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005037</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6098</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012895</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5716</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5690</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>588300</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5562</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5176</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4850</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4590</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007464</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4574</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>512580</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发中证环保产业ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4547</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3956</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>588330</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华宝中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3954</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006904</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3918</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3895</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3871</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3854</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005474</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3706</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3555</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3502</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3502</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3483</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011512</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3459</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3458</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3233</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3188</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159782</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>银华中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3140</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011513</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3015</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010805</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2904</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2654</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012294</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泰康优势精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2634</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012722</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2322</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2303</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>160420</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华安创业板50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>78.25</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>159757</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>景顺长城国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.19</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007465</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001677</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>159840</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>工银瑞信国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2103</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013148</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富碳中和主题混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2032</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>67.27</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012332</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>63.66</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>588360</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>国泰中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>516660</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华安中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>97.44</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1757</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012723</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159885</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>鹏华中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005038</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010806</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013195</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>招商中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006905</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>516070</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>易方达中证内地低碳经济主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>012898</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>014237</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源指数增强A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>73.39</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>013816</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>012908</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005475</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>516390</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>159824</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>博时中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>163114</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>013196</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>招商中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>561910</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>招商中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>160634</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>鹏华中证环保产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>014238</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源指数增强C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>013105</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>562300</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>银华中证内地低碳经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>96.09</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>159814</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>西部利得创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>159767</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>兴银国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>013106</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>560560</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>泰康中证内地低碳经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>97.97</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>009981</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>516270</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华安中证内地新能源主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>96.90</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>013817</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>004394</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创优灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>164304</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>新华中证环保产业指数</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>159775</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>建信国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>96.18</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>73.39</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>012899</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>68.33</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>005288</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>73.08</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>009982</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>010419</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>申万菱信中证环保产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>013371</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>民生加银新能源智选混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>48.46</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>005287</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>012236</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>中银持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>69.59</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>73.08</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>010812</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>012333</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>63.66</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>013372</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>民生加银新能源智选混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>014985</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>华安创业板50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>193</v>
+      </c>
+      <c r="D2" t="n">
+        <v>114.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>245</v>
+      </c>
+      <c r="D3" t="n">
+        <v>146.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>222</v>
+      </c>
+      <c r="D4" t="n">
+        <v>146.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>171</v>
+      </c>
+      <c r="D5" t="n">
+        <v>107.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>175</v>
+      </c>
+      <c r="D6" t="n">
+        <v>95.65000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>172</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>90.89</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300450-先导智能.xlsx
+++ b/数据整理/stocks/A股/创业板/300450-先导智能.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -45522,7 +45523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45533,17 +45534,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -45553,14 +45574,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>193</v>
-      </c>
-      <c r="D2" t="n">
-        <v>114.12</v>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>162.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.3508</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -45569,14 +45612,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>245</v>
-      </c>
-      <c r="D3" t="n">
-        <v>146.49</v>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>141.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.0789</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -45585,14 +45650,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>222</v>
-      </c>
-      <c r="D4" t="n">
-        <v>146.58</v>
+          <t>501057</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>182.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.9259</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -45601,14 +45688,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>171</v>
-      </c>
-      <c r="D5" t="n">
-        <v>107.23</v>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>97.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1787</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -45617,14 +45726,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>175</v>
-      </c>
-      <c r="D6" t="n">
-        <v>95.65000000000001</v>
+          <t>515030</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>122.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.6489</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -45633,13 +45764,5115 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>161028</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>110.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.0944</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>63.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.7170</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159949</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安创业板50ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>100.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.2651</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515700</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安中证新能源汽车产业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>76.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1604</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.1574</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>45.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0362</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501058</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数LOFC</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>73.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9726</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000696</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富环保行业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>52.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.8238</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159783</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>47.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5206</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>49.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>62.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.4579</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>46.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>62.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3853</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1864</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159780</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>33.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0882</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9760</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>163803</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8621</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8368</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160225</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>30.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8065</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7893</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7645</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159755</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7331</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012894</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>23.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7046</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6570</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6559</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.92</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6264</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012907</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6222</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>588380</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证科创创业50交易型开放式指数</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>19.46</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6208</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>588400</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>19.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6182</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6086</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012895</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5618</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>588300</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5190</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5056</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007464</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>22.69</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4810</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>588330</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3772</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011513</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3711</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3638</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3463</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010805</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3445</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005037</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3369</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159782</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2948</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012332</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>52.04</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2827</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2794</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013048</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2644</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>160420</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安创业板50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2487</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2262</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159840</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007465</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>交银施罗德创业板50指数C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2160</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012722</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2049</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>168103</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>九泰锐益定增灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>95.28</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159757</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>景顺长城国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>588360</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001677</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010806</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013195</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012723</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>516660</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华安中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005038</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012898</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012908</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013196</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>516390</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>561910</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159824</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博时中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>75.25</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013105</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>97.98</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011512</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159814</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>西部利得创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>99.82</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008640</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013106</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>159767</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>兴银国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>004394</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创优灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>39.42</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009981</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008641</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>012899</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>159775</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>建信国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005288</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009982</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005287</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>000932</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010812</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>970046</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>72.36</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>012236</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中银持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>012333</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>52.04</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>014218</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>汇添富中证科创创业50指数增强A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>014997</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010749</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>970050</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>东海海睿锐意3个月定开灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>012919</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>014985</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华安创业板50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>960011</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>中银持续增长混合H</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>970047</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>72.36</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>014219</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>汇添富中证科创创业50指数增强C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>000933</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010750</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>39.42</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>013846</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>136</v>
+      </c>
+      <c r="D2" t="n">
+        <v>73.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>193</v>
+      </c>
+      <c r="D3" t="n">
+        <v>114.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>245</v>
+      </c>
+      <c r="D4" t="n">
+        <v>146.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>222</v>
+      </c>
+      <c r="D5" t="n">
+        <v>146.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>171</v>
+      </c>
+      <c r="D6" t="n">
+        <v>107.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>175</v>
+      </c>
+      <c r="D7" t="n">
+        <v>95.65000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>172</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>90.89</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300450-先导智能.xlsx
+++ b/数据整理/stocks/A股/创业板/300450-先导智能.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D2" t="n">
-        <v>73.97</v>
+        <v>60.69</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="D3" t="n">
-        <v>114.12</v>
+        <v>73.97</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="D4" t="n">
-        <v>146.49</v>
+        <v>114.12</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="D5" t="n">
-        <v>146.58</v>
+        <v>146.49</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="D6" t="n">
-        <v>107.23</v>
+        <v>146.58</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D7" t="n">
-        <v>95.65000000000001</v>
+        <v>107.23</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>175</v>
+      </c>
+      <c r="D8" t="n">
+        <v>95.65000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>172</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>90.89</v>
       </c>
     </row>
@@ -600,6 +617,5528 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H145"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6624</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>128.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.0142</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7529</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>69.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5848</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>57.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4758</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161028</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4599</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501057</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1357</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7665</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>58.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6425</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5922</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501058</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>57.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5372</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515700</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安中证新能源汽车产业ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5268</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5121</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4197</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3671</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>26.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2277</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2180</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商金安成长严选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1530</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159783</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>39.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1015</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8815</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8483</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159780</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>28.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8201</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7941</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013147</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富碳中和主题混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>26.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7819</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7211</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159755</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7032</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160225</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6204</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6052</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5423</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4866</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>588380</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4824</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>588400</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4721</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159806</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4521</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4424</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4423</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>163803</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4332</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010736</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4140</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>588300</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3821</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012907</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3735</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3456</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3228</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>588330</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2894</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2748</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012895</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50ETF联接C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>59.85</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2733</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2552</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159796</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2535</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011513</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2452</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>561160</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2415</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2369</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159840</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2256</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159782</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2183</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2089</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159603</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159757</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>景顺长城国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013048</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013148</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇添富碳中和主题混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>168103</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>九泰锐益灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>516660</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华安中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010806</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车ETF联接基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>588360</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国泰中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010805</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源汽车ETF联接基金A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010737</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>516390</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇添富中证新能源汽车产业ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>516290</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>561910</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>招商中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012723</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013196</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012908</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>588390</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>博时中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012885</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华夏中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001677</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>159618</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159609</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>浦银安盛中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>159824</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>博时中证新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>98.19</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>014605</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>嘉实中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012544</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>嘉实中证新能源汽车指数C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012894</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50ETF联接A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>59.85</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012898</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012886</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>159814</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>西部利得创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014647</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>融通先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011512</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>天弘中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>159767</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>兴银国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>013195</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>014648</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>融通先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009981</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012722</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>970033</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>004394</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创优灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>014604</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>嘉实中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>013774</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009982</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>003704</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>光大保德信事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>012328</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>天弘中证新能源指数增强A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>38.28</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>159775</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>建信国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>012899</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>588310</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>方正富邦中证科创创业50ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>96.67</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>012543</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>嘉实中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>015998</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>大成中证电池主题指数C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>970032</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>012213</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>天弘中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>012212</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>天弘中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005287</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010812</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>014997</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>012329</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>天弘中证新能源指数增强C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>970050</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>东海海睿锐意3个月定开灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>015997</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>大成中证电池主题指数A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005288</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>012901</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>招商创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>013775</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>012236</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中银持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>012919</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>012900</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>招商创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>960011</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中银持续增长混合H</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>38.28</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>016010</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数E</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>016398</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>九泰锐益灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>-2.93</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>-0.1301</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5815,7 +11354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13201,7 +18740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22563,7 +28102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -31053,7 +36592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -37605,7 +43144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -44297,7 +49836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
